--- a/0_ОКВЭД_Транспорт.xlsx
+++ b/0_ОКВЭД_Транспорт.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bomber\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bomber\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16585B21-EE68-4112-BB7C-5A5C96F85AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A81ECE-870C-46AA-AA03-931F618AFBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="214">
   <si>
     <t>Код</t>
   </si>
@@ -675,6 +675,9 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Кол-во компаний на сайте</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,15 +710,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -740,15 +734,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1031,28 +1022,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="90" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>49</v>
       </c>
@@ -1062,15 +1056,11 @@
       <c r="C2" s="2">
         <v>69734</v>
       </c>
-      <c r="D2" s="5">
-        <f>SUM(D3:D42)</f>
-        <v>960.8</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1080,15 +1070,11 @@
       <c r="C3" s="2">
         <v>350</v>
       </c>
-      <c r="D3" s="4">
-        <f>C3*10%</f>
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1085,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1142,12 +1128,11 @@
       <c r="C8" s="2">
         <v>1758</v>
       </c>
-      <c r="D8" s="4">
-        <f>C8*10%</f>
-        <v>175.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1143,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1169,7 +1154,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1179,11 +1164,11 @@
       <c r="C11" s="2">
         <v>9447</v>
       </c>
-      <c r="D11" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1179,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1205,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1216,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1414,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1425,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1436,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1447,7 +1432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -1457,11 +1442,11 @@
       <c r="C36" s="2">
         <v>57993</v>
       </c>
-      <c r="D36" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1472,7 +1457,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1483,7 +1468,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1494,7 +1479,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -1505,7 +1490,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1516,7 +1501,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="42" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1526,14 +1511,11 @@
       <c r="C42" s="2">
         <v>184</v>
       </c>
-      <c r="D42" s="4">
-        <v>50</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -1544,7 +1526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -1555,7 +1537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -1566,7 +1548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -1577,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -1588,7 +1570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -1599,7 +1581,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -1610,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -1621,7 +1603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1631,15 +1613,11 @@
       <c r="C51" s="2">
         <v>2100</v>
       </c>
-      <c r="D51" s="4">
-        <f>C51*10%</f>
-        <v>210</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -1649,15 +1627,11 @@
       <c r="C52" s="2">
         <v>293</v>
       </c>
-      <c r="D52" s="3">
-        <f>C52/$C$51*$D$51</f>
-        <v>29.3</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -1668,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -1679,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -1690,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -1701,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -1712,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -1723,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -1734,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -1745,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -1756,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -1767,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -1777,15 +1751,11 @@
       <c r="C63" s="2">
         <v>705</v>
       </c>
-      <c r="D63" s="3">
-        <f>C63/$C$51*$D$51</f>
-        <v>70.5</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -1972,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -1983,7 +1953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -1994,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -2005,7 +1975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -2016,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -2027,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -2038,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -2048,15 +2018,11 @@
       <c r="C87" s="2">
         <v>525</v>
       </c>
-      <c r="D87" s="3">
-        <f>C87/$C$51*$D$51</f>
-        <v>52.5</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D87" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>168</v>
       </c>
@@ -2067,7 +2033,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -2078,7 +2044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -2089,7 +2055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -2099,15 +2065,11 @@
       <c r="C91" s="2">
         <v>576</v>
       </c>
-      <c r="D91" s="3">
-        <f>C91/$C$51*$D$51</f>
-        <v>57.6</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D91" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -2118,7 +2080,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -2129,7 +2091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -2140,7 +2102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>180</v>
       </c>
@@ -2151,7 +2113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>51</v>
       </c>
@@ -2161,15 +2123,11 @@
       <c r="C96" s="2">
         <v>702</v>
       </c>
-      <c r="D96" s="4">
-        <f>C96*10%</f>
-        <v>70.2</v>
-      </c>
-      <c r="E96" s="6" t="s">
+      <c r="D96" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>183</v>
       </c>
@@ -2179,15 +2137,11 @@
       <c r="C97" s="2">
         <v>406</v>
       </c>
-      <c r="D97" s="3">
-        <f>C97/$C$96*$D$96</f>
-        <v>40.6</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D97" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>185</v>
       </c>
@@ -2198,7 +2152,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>187</v>
       </c>
@@ -2209,7 +2163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>189</v>
       </c>
@@ -2220,7 +2174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>191</v>
       </c>
@@ -2230,15 +2184,11 @@
       <c r="C101" s="2">
         <v>296</v>
       </c>
-      <c r="D101" s="3">
-        <f>C101/$C$96*$D$96</f>
-        <v>29.6</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D101" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>193</v>
       </c>
@@ -2249,7 +2199,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>195</v>
       </c>
@@ -2260,7 +2210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>197</v>
       </c>
@@ -2271,7 +2221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>199</v>
       </c>
@@ -2282,7 +2232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>201</v>
       </c>
@@ -2293,7 +2243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -2304,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>205</v>
       </c>
@@ -2315,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -2326,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>209</v>
       </c>
@@ -2337,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
     </row>
   </sheetData>
